--- a/Test cases/1 Тест-кейсы формы Логин/1 Тест-кейсы формы Логин.xlsx
+++ b/Test cases/1 Тест-кейсы формы Логин/1 Тест-кейсы формы Логин.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sdv\Резюме\SDV\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Documents\GitHub\iSpring\Test cases\1 Тест-кейсы формы Логин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FF65B-8DBF-482D-BF4B-CE4396CCC86F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FB13D-5400-4567-9A5E-2475BF0D0414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="208">
   <si>
     <t>Название тест-кейса</t>
   </si>
@@ -1488,24 +1488,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,11 +1514,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:Z931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1852,10 +1852,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13"/>
@@ -1890,8 +1890,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18" t="s">
         <v>11</v>
@@ -1924,11 +1924,11 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="1"/>
@@ -1952,10 +1952,10 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1992,8 +1992,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
@@ -2028,8 +2028,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="18"/>
       <c r="D9" s="13" t="s">
         <v>20</v>
@@ -2062,11 +2062,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="1"/>
@@ -2090,10 +2090,10 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2130,8 +2130,8 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
         <v>27</v>
@@ -2164,8 +2164,8 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
         <v>28</v>
@@ -2198,11 +2198,11 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="1"/>
@@ -2226,10 +2226,10 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -2266,8 +2266,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
         <v>27</v>
@@ -2300,8 +2300,8 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
         <v>33</v>
@@ -2334,11 +2334,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="1"/>
@@ -2362,10 +2362,10 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2402,8 +2402,8 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
         <v>39</v>
@@ -2436,8 +2436,8 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
         <v>41</v>
@@ -2470,8 +2470,8 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
         <v>42</v>
@@ -2504,11 +2504,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="1"/>
@@ -2532,10 +2532,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="54" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2572,8 +2572,8 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
         <v>27</v>
@@ -2606,8 +2606,8 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
         <v>47</v>
@@ -2640,8 +2640,8 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
         <v>49</v>
@@ -2674,10 +2674,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="63" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -2686,7 +2686,7 @@
       <c r="F28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="64" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="1"/>
@@ -2710,17 +2710,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2742,10 +2742,10 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="15" t="s">
         <v>53</v>
       </c>
@@ -2774,8 +2774,8 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
         <v>54</v>
@@ -2810,11 +2810,11 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="1"/>
@@ -2838,10 +2838,10 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="54" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -2878,8 +2878,8 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
         <v>27</v>
@@ -2912,8 +2912,8 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
         <v>28</v>
@@ -2946,8 +2946,8 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="18"/>
       <c r="D36" s="13" t="s">
         <v>60</v>
@@ -2980,8 +2980,8 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
         <v>62</v>
@@ -3014,8 +3014,8 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18" t="s">
         <v>64</v>
@@ -3048,8 +3048,8 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
         <v>65</v>
@@ -3082,11 +3082,11 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="1"/>
@@ -3110,10 +3110,10 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3150,8 +3150,8 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
         <v>71</v>
@@ -3184,8 +3184,8 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
         <v>72</v>
@@ -3218,11 +3218,11 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="1"/>
@@ -3246,10 +3246,10 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3286,8 +3286,8 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
         <v>78</v>
@@ -3320,8 +3320,8 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18" t="s">
         <v>80</v>
@@ -3354,11 +3354,11 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="1"/>
@@ -3382,10 +3382,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -3422,8 +3422,8 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18" t="s">
         <v>85</v>
@@ -3456,8 +3456,8 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
         <v>86</v>
@@ -3490,8 +3490,8 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
         <v>87</v>
@@ -3524,8 +3524,8 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
         <v>88</v>
@@ -3558,8 +3558,8 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
         <v>89</v>
@@ -3592,8 +3592,8 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
         <v>90</v>
@@ -3626,8 +3626,8 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
         <v>91</v>
@@ -3660,8 +3660,8 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="18"/>
       <c r="D57" s="23" t="s">
         <v>92</v>
@@ -3694,11 +3694,11 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="1"/>
@@ -3722,10 +3722,10 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="54" t="s">
         <v>95</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -3760,8 +3760,8 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="14" t="s">
         <v>97</v>
       </c>
@@ -3796,8 +3796,8 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18" t="s">
         <v>99</v>
@@ -3830,8 +3830,8 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18" t="s">
         <v>100</v>
@@ -3864,8 +3864,8 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18" t="s">
         <v>101</v>
@@ -3898,8 +3898,8 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18" t="s">
         <v>102</v>
@@ -3932,8 +3932,8 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18" t="s">
         <v>103</v>
@@ -3966,8 +3966,8 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18" t="s">
         <v>104</v>
@@ -4000,8 +4000,8 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18" t="s">
         <v>105</v>
@@ -4034,8 +4034,8 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18" t="s">
         <v>106</v>
@@ -4068,8 +4068,8 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
         <v>107</v>
@@ -4102,8 +4102,8 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18" t="s">
         <v>108</v>
@@ -4136,8 +4136,8 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="18"/>
       <c r="D71" s="25" t="s">
         <v>109</v>
@@ -4236,11 +4236,11 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="17"/>
       <c r="G74" s="26"/>
       <c r="H74" s="1"/>
@@ -4264,10 +4264,10 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4304,8 +4304,8 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
-      <c r="B76" s="55"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18" t="s">
         <v>119</v>
@@ -4338,8 +4338,8 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18" t="s">
         <v>120</v>
@@ -4372,8 +4372,8 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18" t="s">
         <v>121</v>
@@ -4406,8 +4406,8 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18" t="s">
         <v>122</v>
@@ -4440,8 +4440,8 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18" t="s">
         <v>123</v>
@@ -4474,8 +4474,8 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
-      <c r="B81" s="55"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18" t="s">
         <v>124</v>
@@ -4508,8 +4508,8 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18" t="s">
         <v>125</v>
@@ -4542,8 +4542,8 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="18"/>
       <c r="D83" s="14" t="s">
         <v>126</v>
@@ -4576,8 +4576,8 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="18"/>
       <c r="D84" s="13" t="s">
         <v>127</v>
@@ -4610,8 +4610,8 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18" t="s">
         <v>128</v>
@@ -4644,8 +4644,8 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18" t="s">
         <v>129</v>
@@ -4678,8 +4678,8 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18" t="s">
         <v>130</v>
@@ -4712,8 +4712,8 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
         <v>131</v>
@@ -4746,11 +4746,11 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="53"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="1"/>
@@ -4774,10 +4774,10 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="54" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="14" t="s">
@@ -4814,8 +4814,8 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
         <v>27</v>
@@ -4848,8 +4848,8 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
         <v>135</v>
@@ -4882,8 +4882,8 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18" t="s">
         <v>137</v>
@@ -4894,7 +4894,7 @@
       <c r="F93" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="57" t="s">
+      <c r="G93" s="64" t="s">
         <v>139</v>
       </c>
       <c r="H93" s="1"/>
@@ -4918,8 +4918,8 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
         <v>140</v>
@@ -4930,7 +4930,7 @@
       <c r="F94" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="56"/>
+      <c r="G94" s="53"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -4952,11 +4952,11 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="53"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="1"/>
@@ -4980,10 +4980,10 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="54" t="s">
         <v>142</v>
       </c>
       <c r="C96" s="13"/>
@@ -5018,8 +5018,8 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18" t="s">
         <v>145</v>
@@ -5052,8 +5052,8 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18" t="s">
         <v>146</v>
@@ -5086,8 +5086,8 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18" t="s">
         <v>147</v>
@@ -5120,8 +5120,8 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="18"/>
       <c r="D100" s="14" t="s">
         <v>148</v>
@@ -5154,8 +5154,8 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18" t="s">
         <v>149</v>
@@ -5188,8 +5188,8 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18" t="s">
         <v>150</v>
@@ -5222,8 +5222,8 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="32"/>
       <c r="D103" s="18" t="s">
         <v>151</v>
@@ -5256,8 +5256,8 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="56"/>
-      <c r="B104" s="56"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18" t="s">
         <v>152</v>
@@ -5290,11 +5290,11 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="53"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="1"/>
@@ -5318,10 +5318,10 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="58" t="s">
+      <c r="B106" s="54" t="s">
         <v>155</v>
       </c>
       <c r="C106" s="13"/>
@@ -5356,8 +5356,8 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18" t="s">
         <v>157</v>
@@ -5388,8 +5388,8 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="18"/>
       <c r="D108" s="18" t="s">
         <v>135</v>
@@ -5422,8 +5422,8 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="18"/>
       <c r="D109" s="14" t="s">
         <v>158</v>
@@ -5456,11 +5456,11 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="53"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="57"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="1"/>
@@ -5484,10 +5484,10 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="54" t="s">
         <v>161</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -5522,8 +5522,8 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="55"/>
-      <c r="B112" s="55"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18" t="s">
         <v>164</v>
@@ -5556,8 +5556,8 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="55"/>
-      <c r="B113" s="55"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18" t="s">
         <v>166</v>
@@ -5592,8 +5592,8 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="55"/>
-      <c r="B114" s="55"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18" t="s">
         <v>169</v>
@@ -5626,8 +5626,8 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
-      <c r="B115" s="55"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18" t="s">
         <v>171</v>
@@ -5660,8 +5660,8 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="32"/>
       <c r="D116" s="18" t="s">
         <v>173</v>
@@ -5694,11 +5694,11 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="51"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="53"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="57"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="1"/>
@@ -5722,10 +5722,10 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="58" t="s">
+      <c r="B118" s="54" t="s">
         <v>175</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -5762,8 +5762,8 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="13" t="s">
         <v>178</v>
       </c>
@@ -5798,8 +5798,8 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
-      <c r="B120" s="55"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="18" t="s">
         <v>180</v>
       </c>
@@ -5834,8 +5834,8 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="55"/>
-      <c r="B121" s="55"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="13" t="s">
         <v>183</v>
       </c>
@@ -5864,8 +5864,8 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="56"/>
-      <c r="B122" s="56"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="13" t="s">
         <v>184</v>
       </c>
@@ -5894,11 +5894,11 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="51"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="53"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="57"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="1"/>
@@ -5922,10 +5922,10 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="58" t="s">
+      <c r="B124" s="54" t="s">
         <v>186</v>
       </c>
       <c r="C124" s="14" t="s">
@@ -5962,8 +5962,8 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="55"/>
-      <c r="B125" s="55"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="13" t="s">
         <v>178</v>
       </c>
@@ -5998,8 +5998,8 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
-      <c r="B126" s="55"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="18" t="s">
         <v>191</v>
       </c>
@@ -6034,8 +6034,8 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="55"/>
-      <c r="B127" s="55"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="13" t="s">
         <v>183</v>
       </c>
@@ -6064,8 +6064,8 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="56"/>
-      <c r="B128" s="56"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="13" t="s">
         <v>184</v>
       </c>
@@ -6094,11 +6094,11 @@
       <c r="Z128" s="1"/>
     </row>
     <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="51"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="53"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="57"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="1"/>
@@ -6122,10 +6122,10 @@
       <c r="Z129" s="1"/>
     </row>
     <row r="130" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B130" s="58" t="s">
+      <c r="B130" s="54" t="s">
         <v>194</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -6137,7 +6137,9 @@
       <c r="E130" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F130" s="16"/>
+      <c r="F130" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G130" s="17"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -6160,8 +6162,8 @@
       <c r="Z130" s="1"/>
     </row>
     <row r="131" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
-      <c r="B131" s="55"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="13" t="s">
         <v>178</v>
       </c>
@@ -6171,7 +6173,9 @@
       <c r="E131" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F131" s="16"/>
+      <c r="F131" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G131" s="17"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -6194,8 +6198,8 @@
       <c r="Z131" s="1"/>
     </row>
     <row r="132" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
-      <c r="B132" s="55"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="18" t="s">
         <v>198</v>
       </c>
@@ -6205,7 +6209,9 @@
       <c r="E132" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F132" s="16"/>
+      <c r="F132" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G132" s="17"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -6228,8 +6234,8 @@
       <c r="Z132" s="1"/>
     </row>
     <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="56"/>
-      <c r="B133" s="56"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="13" t="s">
         <v>199</v>
       </c>
@@ -6258,11 +6264,11 @@
       <c r="Z133" s="1"/>
     </row>
     <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="51"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="53"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="57"/>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
       <c r="H134" s="1"/>
@@ -6286,10 +6292,10 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="63" t="s">
+      <c r="A135" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B135" s="64" t="s">
+      <c r="B135" s="59" t="s">
         <v>201</v>
       </c>
       <c r="C135" s="34" t="s">
@@ -6324,8 +6330,8 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="55"/>
-      <c r="B136" s="55"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="35"/>
       <c r="D136" s="35" t="s">
         <v>85</v>
@@ -6358,8 +6364,8 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="55"/>
-      <c r="B137" s="55"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="35"/>
       <c r="D137" s="35" t="s">
         <v>204</v>
@@ -6392,8 +6398,8 @@
       <c r="Z137" s="1"/>
     </row>
     <row r="138" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="55"/>
-      <c r="B138" s="55"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="35"/>
       <c r="D138" s="35" t="s">
         <v>205</v>
@@ -6426,8 +6432,8 @@
       <c r="Z138" s="1"/>
     </row>
     <row r="139" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A139" s="56"/>
-      <c r="B139" s="56"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="35"/>
       <c r="D139" s="36" t="s">
         <v>206</v>
@@ -8220,59 +8226,6 @@
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="B49:B57"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A59:A71"/>
     <mergeCell ref="G93:G94"/>
@@ -8284,6 +8237,59 @@
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="A75:A88"/>
     <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
